--- a/REGULAR/CTO/FERNANDEZ, MILAGROS CARAAN.xlsx
+++ b/REGULAR/CTO/FERNANDEZ, MILAGROS CARAAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E489B02-1849-4C50-9239-64FE47585901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="491">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1497,12 +1498,21 @@
   </si>
   <si>
     <t>8/24,25/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>10/16,20/2023</t>
+  </si>
+  <si>
+    <t>11/7,15,22,27,29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2223,7 +2233,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2240,25 +2250,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K646" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K647" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2565,34 +2575,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K646"/>
+  <dimension ref="A2:K647"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4245" topLeftCell="A594" activePane="bottomLeft"/>
+      <pane ySplit="4248" topLeftCell="A604" activePane="bottomLeft"/>
       <selection activeCell="K10" sqref="K10"/>
-      <selection pane="bottomLeft" activeCell="K604" sqref="K604"/>
+      <selection pane="bottomLeft" activeCell="C606" sqref="C606:C607"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2613,7 +2623,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2645,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2657,7 +2667,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2665,7 +2675,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2678,7 +2688,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -2695,7 +2705,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2730,7 +2740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2749,12 +2759,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>139.41700000000003</v>
+        <v>141.41700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>54</v>
       </c>
@@ -2776,7 +2786,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>34642</v>
       </c>
@@ -2796,7 +2806,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <f>EOMONTH(A11,1)</f>
         <v>34699</v>
@@ -2817,7 +2827,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>55</v>
       </c>
@@ -2835,7 +2845,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f>EOMONTH(A12,1)</f>
         <v>34730</v>
@@ -2856,7 +2866,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A107" si="0">EOMONTH(A14,1)</f>
         <v>34758</v>
@@ -2877,7 +2887,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>34789</v>
@@ -2898,7 +2908,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>34819</v>
@@ -2919,7 +2929,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>34850</v>
@@ -2946,7 +2956,7 @@
         <v>34855</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>34880</v>
@@ -2967,7 +2977,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>34911</v>
@@ -2994,7 +3004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>34942</v>
@@ -3021,7 +3031,7 @@
         <v>35011</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>34972</v>
@@ -3042,7 +3052,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>35003</v>
@@ -3063,7 +3073,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>35033</v>
@@ -3084,7 +3094,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>35064</v>
@@ -3111,7 +3121,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>61</v>
       </c>
@@ -3129,7 +3139,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f>EOMONTH(A25,1)</f>
         <v>35095</v>
@@ -3150,7 +3160,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>35124</v>
@@ -3177,7 +3187,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>35155</v>
@@ -3198,7 +3208,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>35185</v>
@@ -3219,7 +3229,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>35216</v>
@@ -3240,7 +3250,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>35246</v>
@@ -3267,7 +3277,7 @@
         <v>35252</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>57</v>
@@ -3289,7 +3299,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f>EOMONTH(A32,1)</f>
         <v>35277</v>
@@ -3310,7 +3320,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>35308</v>
@@ -3337,7 +3347,7 @@
         <v>35193</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>57</v>
@@ -3359,7 +3369,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f>EOMONTH(A35,1)</f>
         <v>35338</v>
@@ -3380,7 +3390,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>35369</v>
@@ -3401,7 +3411,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>35399</v>
@@ -3426,7 +3436,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>35430</v>
@@ -3451,7 +3461,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>67</v>
@@ -3471,7 +3481,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>68</v>
       </c>
@@ -3489,7 +3499,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f>EOMONTH(A40,1)</f>
         <v>35461</v>
@@ -3510,7 +3520,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>35489</v>
@@ -3531,7 +3541,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>35520</v>
@@ -3558,7 +3568,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>56</v>
@@ -3580,7 +3590,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <f>EOMONTH(A45,1)</f>
         <v>35550</v>
@@ -3601,7 +3611,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>35581</v>
@@ -3622,7 +3632,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>35611</v>
@@ -3649,7 +3659,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>35642</v>
@@ -3670,7 +3680,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f t="shared" si="0"/>
         <v>35673</v>
@@ -3691,7 +3701,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f t="shared" si="0"/>
         <v>35703</v>
@@ -3712,7 +3722,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>35734</v>
@@ -3737,7 +3747,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>35764</v>
@@ -3758,7 +3768,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>35795</v>
@@ -3779,7 +3789,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>73</v>
       </c>
@@ -3797,7 +3807,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <f>EOMONTH(A55,1)</f>
         <v>35826</v>
@@ -3820,7 +3830,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>35854</v>
@@ -3841,7 +3851,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>35885</v>
@@ -3862,7 +3872,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>35915</v>
@@ -3883,7 +3893,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>35946</v>
@@ -3904,7 +3914,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <f t="shared" si="0"/>
         <v>35976</v>
@@ -3925,7 +3935,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>36007</v>
@@ -3946,7 +3956,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>36038</v>
@@ -3967,7 +3977,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>36068</v>
@@ -3994,7 +4004,7 @@
         <v>35863</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>56</v>
@@ -4016,7 +4026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>75</v>
@@ -4036,7 +4046,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f>EOMONTH(A65,1)</f>
         <v>36099</v>
@@ -4063,7 +4073,7 @@
         <v>35836</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>76</v>
@@ -4085,7 +4095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <f>EOMONTH(A68,1)</f>
         <v>36129</v>
@@ -4110,7 +4120,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <f t="shared" si="0"/>
         <v>36160</v>
@@ -4137,7 +4147,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -4159,7 +4169,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>56</v>
@@ -4181,7 +4191,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="48" t="s">
         <v>84</v>
       </c>
@@ -4199,7 +4209,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <f>EOMONTH(A71,1)</f>
         <v>36191</v>
@@ -4224,7 +4234,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f t="shared" si="0"/>
         <v>36219</v>
@@ -4251,7 +4261,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>87</v>
@@ -4271,7 +4281,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <f>EOMONTH(A76,1)</f>
         <v>36250</v>
@@ -4298,7 +4308,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>56</v>
@@ -4320,7 +4330,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>90</v>
@@ -4340,7 +4350,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>117</v>
@@ -4360,7 +4370,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EOMONTH(A78,1)</f>
         <v>36280</v>
@@ -4385,7 +4395,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>56</v>
@@ -4407,7 +4417,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>95</v>
@@ -4429,7 +4439,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>57</v>
@@ -4451,7 +4461,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>98</v>
@@ -4471,7 +4481,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f>EOMONTH(A82,1)</f>
         <v>36311</v>
@@ -4498,7 +4508,7 @@
         <v>36224</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>99</v>
@@ -4520,7 +4530,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>100</v>
@@ -4540,7 +4550,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f>EOMONTH(A87,1)</f>
         <v>36341</v>
@@ -4567,7 +4577,7 @@
         <v>36347</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <f t="shared" si="0"/>
         <v>36372</v>
@@ -4594,7 +4604,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>102</v>
@@ -4616,7 +4626,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f>EOMONTH(A91,1)</f>
         <v>36403</v>
@@ -4643,7 +4653,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>105</v>
@@ -4663,7 +4673,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>107</v>
@@ -4683,7 +4693,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f>EOMONTH(A93,1)</f>
         <v>36433</v>
@@ -4704,7 +4714,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f t="shared" si="0"/>
         <v>36464</v>
@@ -4729,7 +4739,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f t="shared" si="0"/>
         <v>36494</v>
@@ -4756,7 +4766,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>95</v>
@@ -4778,7 +4788,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>95</v>
@@ -4800,7 +4810,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>79</v>
@@ -4822,7 +4832,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <f>EOMONTH(A98,1)</f>
         <v>36525</v>
@@ -4847,7 +4857,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="48" t="s">
         <v>118</v>
       </c>
@@ -4865,7 +4875,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="50"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <f>EOMONTH(A102,1)</f>
         <v>36556</v>
@@ -4890,7 +4900,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f t="shared" si="0"/>
         <v>36585</v>
@@ -4915,7 +4925,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <f t="shared" si="0"/>
         <v>36616</v>
@@ -4936,7 +4946,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f t="shared" si="0"/>
         <v>36646</v>
@@ -4961,7 +4971,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <f t="shared" ref="A108:A211" si="1">EOMONTH(A107,1)</f>
         <v>36677</v>
@@ -4986,7 +4996,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>99</v>
@@ -5006,7 +5016,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>127</v>
@@ -5026,7 +5036,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <f>EOMONTH(A108,1)</f>
         <v>36707</v>
@@ -5053,7 +5063,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>124</v>
@@ -5071,7 +5081,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f>EOMONTH(A111,1)</f>
         <v>36738</v>
@@ -5098,7 +5108,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>126</v>
@@ -5120,7 +5130,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <f>EOMONTH(A113,1)</f>
         <v>36769</v>
@@ -5145,7 +5155,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <f t="shared" si="1"/>
         <v>36799</v>
@@ -5170,7 +5180,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <f t="shared" si="1"/>
         <v>36830</v>
@@ -5195,7 +5205,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <f t="shared" si="1"/>
         <v>36860</v>
@@ -5222,7 +5232,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>79</v>
@@ -5244,7 +5254,7 @@
         <v>36537</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>134</v>
@@ -5264,7 +5274,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="49"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <f>EOMONTH(A118,1)</f>
         <v>36891</v>
@@ -5291,7 +5301,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>95</v>
@@ -5313,7 +5323,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>137</v>
@@ -5333,7 +5343,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="48" t="s">
         <v>138</v>
       </c>
@@ -5351,7 +5361,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f>EOMONTH(A121,1)</f>
         <v>36922</v>
@@ -5376,7 +5386,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <f t="shared" si="1"/>
         <v>36950</v>
@@ -5397,7 +5407,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <f t="shared" si="1"/>
         <v>36981</v>
@@ -5418,7 +5428,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f t="shared" si="1"/>
         <v>37011</v>
@@ -5443,7 +5453,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f t="shared" si="1"/>
         <v>37042</v>
@@ -5468,7 +5478,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <f t="shared" si="1"/>
         <v>37072</v>
@@ -5493,7 +5503,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <f t="shared" si="1"/>
         <v>37103</v>
@@ -5518,7 +5528,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <f t="shared" si="1"/>
         <v>37134</v>
@@ -5543,7 +5553,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f t="shared" si="1"/>
         <v>37164</v>
@@ -5568,7 +5578,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <f t="shared" si="1"/>
         <v>37195</v>
@@ -5595,7 +5605,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>147</v>
@@ -5615,7 +5625,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f>EOMONTH(A134,1)</f>
         <v>37225</v>
@@ -5640,7 +5650,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>109</v>
@@ -5662,7 +5672,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>151</v>
@@ -5682,7 +5692,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <f>EOMONTH(A136,1)</f>
         <v>37256</v>
@@ -5707,7 +5717,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>121</v>
@@ -5727,7 +5737,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="52"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="48" t="s">
         <v>152</v>
       </c>
@@ -5745,7 +5755,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="52"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <f>EOMONTH(A139,1)</f>
         <v>37287</v>
@@ -5770,7 +5780,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <f>EOMONTH(A142,1)</f>
         <v>37315</v>
@@ -5795,7 +5805,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f>EOMONTH(A143,1)</f>
         <v>37346</v>
@@ -5820,7 +5830,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <f t="shared" si="1"/>
         <v>37376</v>
@@ -5847,7 +5857,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>99</v>
@@ -5869,7 +5879,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <f>EOMONTH(A145,1)</f>
         <v>37407</v>
@@ -5894,7 +5904,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>56</v>
@@ -5916,7 +5926,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <f>EOMONTH(A147,1)</f>
         <v>37437</v>
@@ -5943,7 +5953,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <f t="shared" si="1"/>
         <v>37468</v>
@@ -5970,7 +5980,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>56</v>
@@ -5992,7 +6002,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <f>EOMONTH(A150,1)</f>
         <v>37499</v>
@@ -6019,7 +6029,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>57</v>
@@ -6041,7 +6051,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <f>EOMONTH(A152,1)</f>
         <v>37529</v>
@@ -6062,7 +6072,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <f t="shared" si="1"/>
         <v>37560</v>
@@ -6083,7 +6093,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <f t="shared" si="1"/>
         <v>37590</v>
@@ -6110,7 +6120,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>166</v>
@@ -6132,7 +6142,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <f>EOMONTH(A156,1)</f>
         <v>37621</v>
@@ -6157,7 +6167,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="48" t="s">
         <v>169</v>
       </c>
@@ -6175,7 +6185,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <f>EOMONTH(A158,1)</f>
         <v>37652</v>
@@ -6196,7 +6206,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <f t="shared" si="1"/>
         <v>37680</v>
@@ -6221,7 +6231,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f t="shared" si="1"/>
         <v>37711</v>
@@ -6242,7 +6252,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <f t="shared" si="1"/>
         <v>37741</v>
@@ -6263,7 +6273,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <f t="shared" si="1"/>
         <v>37772</v>
@@ -6290,7 +6300,7 @@
         <v>37807</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>56</v>
@@ -6312,7 +6322,7 @@
         <v>37869</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>99</v>
@@ -6334,7 +6344,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <f>EOMONTH(A164,1)</f>
         <v>37802</v>
@@ -6361,7 +6371,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <f t="shared" si="1"/>
         <v>37833</v>
@@ -6382,7 +6392,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <f t="shared" si="1"/>
         <v>37864</v>
@@ -6403,7 +6413,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <f t="shared" si="1"/>
         <v>37894</v>
@@ -6430,7 +6440,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>132</v>
@@ -6452,7 +6462,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>56</v>
@@ -6474,7 +6484,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>176</v>
@@ -6494,7 +6504,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <f>EOMONTH(A170,1)</f>
         <v>37925</v>
@@ -6521,7 +6531,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>53</v>
@@ -6543,7 +6553,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>179</v>
@@ -6563,7 +6573,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f>EOMONTH(A174,1)</f>
         <v>37955</v>
@@ -6590,7 +6600,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>56</v>
@@ -6612,7 +6622,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f>EOMONTH(A177,1)</f>
         <v>37986</v>
@@ -6637,7 +6647,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="48" t="s">
         <v>183</v>
       </c>
@@ -6655,7 +6665,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23">
         <f>EOMONTH(A179,1)</f>
         <v>38017</v>
@@ -6682,7 +6692,7 @@
         <v>38019</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>75</v>
@@ -6702,7 +6712,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <f>EOMONTH(A181,1)</f>
         <v>38046</v>
@@ -6727,7 +6737,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
         <f t="shared" si="1"/>
         <v>38077</v>
@@ -6754,7 +6764,7 @@
         <v>38049</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>116</v>
@@ -6774,7 +6784,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>186</v>
@@ -6794,7 +6804,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <f>EOMONTH(A184,1)</f>
         <v>38107</v>
@@ -6821,7 +6831,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>95</v>
@@ -6843,7 +6853,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>190</v>
@@ -6863,7 +6873,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <f>EOMONTH(A187,1)</f>
         <v>38138</v>
@@ -6888,7 +6898,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>193</v>
@@ -6908,7 +6918,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f>EOMONTH(A190,1)</f>
         <v>38168</v>
@@ -6933,7 +6943,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>57</v>
@@ -6955,7 +6965,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>195</v>
@@ -6975,7 +6985,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <f>EOMONTH(A192,1)</f>
         <v>38199</v>
@@ -7002,7 +7012,7 @@
         <v>38024</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>56</v>
@@ -7024,7 +7034,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>197</v>
@@ -7044,7 +7054,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <f>EOMONTH(A195,1)</f>
         <v>38230</v>
@@ -7071,7 +7081,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>56</v>
@@ -7093,7 +7103,7 @@
         <v>38299</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>57</v>
@@ -7115,7 +7125,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>114</v>
@@ -7135,7 +7145,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <f>EOMONTH(A198,1)</f>
         <v>38260</v>
@@ -7162,7 +7172,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <f t="shared" si="1"/>
         <v>38291</v>
@@ -7187,7 +7197,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23">
         <f t="shared" si="1"/>
         <v>38321</v>
@@ -7214,7 +7224,7 @@
         <v>38118</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>53</v>
@@ -7236,7 +7246,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>154</v>
@@ -7256,7 +7266,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="49"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <f>EOMONTH(A204,1)</f>
         <v>38352</v>
@@ -7281,7 +7291,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="48" t="s">
         <v>204</v>
       </c>
@@ -7299,7 +7309,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23">
         <f>EOMONTH(A207,1)</f>
         <v>38383</v>
@@ -7320,7 +7330,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <f t="shared" si="1"/>
         <v>38411</v>
@@ -7345,7 +7355,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <f t="shared" si="1"/>
         <v>38442</v>
@@ -7372,7 +7382,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>56</v>
@@ -7394,7 +7404,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>92</v>
@@ -7414,7 +7424,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>202</v>
@@ -7436,7 +7446,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>210</v>
@@ -7456,7 +7466,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <f>EOMONTH(A211,1)</f>
         <v>38472</v>
@@ -7483,7 +7493,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>209</v>
@@ -7503,7 +7513,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <f>EOMONTH(A216,1)</f>
         <v>38503</v>
@@ -7530,7 +7540,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>213</v>
@@ -7550,7 +7560,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <f>EOMONTH(A218,1)</f>
         <v>38533</v>
@@ -7577,7 +7587,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>56</v>
@@ -7599,7 +7609,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>56</v>
@@ -7621,7 +7631,7 @@
         <v>38539</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>57</v>
@@ -7643,7 +7653,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>56</v>
@@ -7665,7 +7675,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>95</v>
@@ -7685,7 +7695,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>217</v>
@@ -7705,7 +7715,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <f>EOMONTH(A220,1)</f>
         <v>38564</v>
@@ -7732,7 +7742,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>202</v>
@@ -7754,7 +7764,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>220</v>
@@ -7774,7 +7784,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <f>EOMONTH(A227,1)</f>
         <v>38595</v>
@@ -7801,7 +7811,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>222</v>
@@ -7821,7 +7831,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f>EOMONTH(A230,1)</f>
         <v>38625</v>
@@ -7848,7 +7858,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>56</v>
@@ -7870,7 +7880,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>226</v>
@@ -7890,7 +7900,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <f>EOMONTH(A232,1)</f>
         <v>38656</v>
@@ -7917,7 +7927,7 @@
         <v>38421</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>225</v>
@@ -7937,7 +7947,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <f>EOMONTH(A235,1)</f>
         <v>38686</v>
@@ -7964,7 +7974,7 @@
         <v>38394</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>56</v>
@@ -7984,7 +7994,7 @@
         <v>38575</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>203</v>
@@ -8006,7 +8016,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>228</v>
@@ -8026,7 +8036,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
         <f>EOMONTH(A237,1)</f>
         <v>38717</v>
@@ -8053,7 +8063,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>229</v>
@@ -8073,7 +8083,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="48" t="s">
         <v>230</v>
       </c>
@@ -8091,7 +8101,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <f>EOMONTH(A241,1)</f>
         <v>38748</v>
@@ -8116,7 +8126,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <f t="shared" ref="A245:A358" si="2">EOMONTH(A244,1)</f>
         <v>38776</v>
@@ -8141,7 +8151,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>56</v>
@@ -8163,7 +8173,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>56</v>
@@ -8185,7 +8195,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>57</v>
@@ -8207,7 +8217,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>237</v>
@@ -8227,7 +8237,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <f>EOMONTH(A245,1)</f>
         <v>38807</v>
@@ -8252,7 +8262,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <f t="shared" si="2"/>
         <v>38837</v>
@@ -8279,7 +8289,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>99</v>
@@ -8301,7 +8311,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>56</v>
@@ -8323,7 +8333,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>56</v>
@@ -8345,7 +8355,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>56</v>
@@ -8367,7 +8377,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>116</v>
@@ -8387,7 +8397,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>244</v>
@@ -8407,7 +8417,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <f>EOMONTH(A251,1)</f>
         <v>38868</v>
@@ -8432,7 +8442,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <f t="shared" si="2"/>
         <v>38898</v>
@@ -8459,7 +8469,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>56</v>
@@ -8481,7 +8491,7 @@
         <v>38755</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>246</v>
@@ -8499,7 +8509,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <f>EOMONTH(A259,1)</f>
         <v>38929</v>
@@ -8526,7 +8536,7 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>56</v>
@@ -8548,7 +8558,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>249</v>
@@ -8568,7 +8578,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <f>EOMONTH(A262,1)</f>
         <v>38960</v>
@@ -8595,7 +8605,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>203</v>
@@ -8617,7 +8627,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>252</v>
@@ -8637,7 +8647,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
         <f>EOMONTH(A265,1)</f>
         <v>38990</v>
@@ -8664,7 +8674,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>116</v>
@@ -8684,7 +8694,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>255</v>
@@ -8704,7 +8714,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <f>EOMONTH(A268,1)</f>
         <v>39021</v>
@@ -8729,7 +8739,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>256</v>
@@ -8749,7 +8759,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <f>EOMONTH(A271,1)</f>
         <v>39051</v>
@@ -8776,7 +8786,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>203</v>
@@ -8798,7 +8808,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>259</v>
@@ -8818,7 +8828,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <f>EOMONTH(A273,1)</f>
         <v>39082</v>
@@ -8843,7 +8853,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="48" t="s">
         <v>261</v>
       </c>
@@ -8861,7 +8871,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <f>EOMONTH(A276,1)</f>
         <v>39113</v>
@@ -8886,7 +8896,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>263</v>
@@ -8906,7 +8916,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f>EOMONTH(A278,1)</f>
         <v>39141</v>
@@ -8933,7 +8943,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>56</v>
@@ -8955,7 +8965,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>266</v>
@@ -8975,7 +8985,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
         <f>EOMONTH(A280,1)</f>
         <v>39172</v>
@@ -9002,7 +9012,7 @@
         <v>39116</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>56</v>
@@ -9024,7 +9034,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>268</v>
@@ -9044,7 +9054,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <f>EOMONTH(A283,1)</f>
         <v>39202</v>
@@ -9071,7 +9081,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>271</v>
@@ -9091,7 +9101,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <f>EOMONTH(A286,1)</f>
         <v>39233</v>
@@ -9118,7 +9128,7 @@
         <v>39178</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>272</v>
@@ -9138,7 +9148,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <f>EOMONTH(A288,1)</f>
         <v>39263</v>
@@ -9165,7 +9175,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>56</v>
@@ -9187,7 +9197,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>275</v>
@@ -9207,7 +9217,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <f>EOMONTH(A290,1)</f>
         <v>39294</v>
@@ -9232,7 +9242,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>56</v>
@@ -9254,7 +9264,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>278</v>
@@ -9274,7 +9284,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>203</v>
@@ -9296,7 +9306,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <f>EOMONTH(A293,1)</f>
         <v>39325</v>
@@ -9321,7 +9331,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <f t="shared" si="2"/>
         <v>39355</v>
@@ -9348,7 +9358,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>168</v>
@@ -9370,7 +9380,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>283</v>
@@ -9390,7 +9400,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <f>EOMONTH(A298,1)</f>
         <v>39386</v>
@@ -9417,7 +9427,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>117</v>
@@ -9437,7 +9447,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>286</v>
@@ -9457,7 +9467,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <f>EOMONTH(A301,1)</f>
         <v>39416</v>
@@ -9482,7 +9492,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <f t="shared" si="2"/>
         <v>39447</v>
@@ -9507,7 +9517,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>57</v>
@@ -9529,7 +9539,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>203</v>
@@ -9549,7 +9559,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>292</v>
@@ -9569,7 +9579,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="48" t="s">
         <v>290</v>
       </c>
@@ -9587,7 +9597,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
         <f>EOMONTH(A305,1)</f>
         <v>39478</v>
@@ -9612,7 +9622,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <f t="shared" si="2"/>
         <v>39507</v>
@@ -9639,7 +9649,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>293</v>
@@ -9659,7 +9669,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <f>EOMONTH(A311,1)</f>
         <v>39538</v>
@@ -9686,7 +9696,7 @@
         <v>39724</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>56</v>
@@ -9708,7 +9718,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>202</v>
@@ -9730,7 +9740,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>297</v>
@@ -9750,7 +9760,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <f>EOMONTH(A313,1)</f>
         <v>39568</v>
@@ -9771,7 +9781,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <f t="shared" si="2"/>
         <v>39599</v>
@@ -9792,7 +9802,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <f t="shared" si="2"/>
         <v>39629</v>
@@ -9813,7 +9823,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <f t="shared" si="2"/>
         <v>39660</v>
@@ -9834,7 +9844,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <f t="shared" si="2"/>
         <v>39691</v>
@@ -9855,7 +9865,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <f t="shared" si="2"/>
         <v>39721</v>
@@ -9876,7 +9886,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <f t="shared" si="2"/>
         <v>39752</v>
@@ -9897,7 +9907,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <f t="shared" si="2"/>
         <v>39782</v>
@@ -9922,7 +9932,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>203</v>
@@ -9944,7 +9954,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <f>EOMONTH(A324,1)</f>
         <v>39813</v>
@@ -9965,7 +9975,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="48" t="s">
         <v>300</v>
       </c>
@@ -9983,7 +9993,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <f>EOMONTH(A326,1)</f>
         <v>39844</v>
@@ -10008,7 +10018,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <f t="shared" si="2"/>
         <v>39872</v>
@@ -10029,7 +10039,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <f t="shared" si="2"/>
         <v>39903</v>
@@ -10050,7 +10060,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <f t="shared" si="2"/>
         <v>39933</v>
@@ -10077,7 +10087,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <f t="shared" si="2"/>
         <v>39964</v>
@@ -10102,7 +10112,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <f t="shared" si="2"/>
         <v>39994</v>
@@ -10129,7 +10139,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>306</v>
@@ -10149,7 +10159,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <f>EOMONTH(A333,1)</f>
         <v>40025</v>
@@ -10174,7 +10184,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <f t="shared" si="2"/>
         <v>40056</v>
@@ -10199,7 +10209,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <f t="shared" si="2"/>
         <v>40086</v>
@@ -10224,7 +10234,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>117</v>
@@ -10244,7 +10254,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>309</v>
@@ -10264,7 +10274,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <f>EOMONTH(A337,1)</f>
         <v>40117</v>
@@ -10289,7 +10299,7 @@
         <v>40035</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>56</v>
@@ -10306,7 +10316,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>57</v>
@@ -10323,7 +10333,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>314</v>
@@ -10340,7 +10350,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <f>EOMONTH(A340,1)</f>
         <v>40147</v>
@@ -10365,7 +10375,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <f t="shared" si="2"/>
         <v>40178</v>
@@ -10392,7 +10402,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>316</v>
@@ -10412,7 +10422,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="48" t="s">
         <v>317</v>
       </c>
@@ -10430,7 +10440,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <f>EOMONTH(A345,1)</f>
         <v>40209</v>
@@ -10455,7 +10465,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <f>EOMONTH(A348,1)</f>
         <v>40237</v>
@@ -10482,7 +10492,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>92</v>
@@ -10499,7 +10509,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>322</v>
@@ -10516,7 +10526,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
         <f>EOMONTH(A349,1)</f>
         <v>40268</v>
@@ -10541,7 +10551,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f>EOMONTH(A352,1)</f>
         <v>40298</v>
@@ -10568,7 +10578,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>56</v>
@@ -10587,7 +10597,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>325</v>
@@ -10607,7 +10617,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f>EOMONTH(A353,1)</f>
         <v>40329</v>
@@ -10632,7 +10642,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <f t="shared" si="2"/>
         <v>40359</v>
@@ -10657,7 +10667,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
         <f t="shared" si="2"/>
         <v>40390</v>
@@ -10684,7 +10694,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>56</v>
@@ -10706,7 +10716,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>331</v>
@@ -10726,7 +10736,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f>EOMONTH(A358,1)</f>
         <v>40421</v>
@@ -10753,7 +10763,7 @@
         <v>40306</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>57</v>
@@ -10772,7 +10782,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>332</v>
@@ -10789,7 +10799,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23">
         <f>EOMONTH(A361,1)</f>
         <v>40451</v>
@@ -10816,7 +10826,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>99</v>
@@ -10835,7 +10845,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>99</v>
@@ -10854,7 +10864,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>337</v>
@@ -10874,7 +10884,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <f>EOMONTH(A364,1)</f>
         <v>40482</v>
@@ -10901,7 +10911,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>339</v>
@@ -10921,7 +10931,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <f>EOMONTH(A368,1)</f>
         <v>40512</v>
@@ -10948,7 +10958,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>341</v>
@@ -10968,7 +10978,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <f>EOMONTH(A370,1)</f>
         <v>40543</v>
@@ -10995,7 +11005,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>343</v>
@@ -11015,7 +11025,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="48" t="s">
         <v>344</v>
       </c>
@@ -11033,7 +11043,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <f>EOMONTH(A372,1)</f>
         <v>40574</v>
@@ -11058,7 +11068,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
         <f>EOMONTH(A375,1)</f>
         <v>40602</v>
@@ -11085,7 +11095,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>56</v>
@@ -11104,7 +11114,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>345</v>
@@ -11121,7 +11131,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EOMONTH(A376,1)</f>
         <v>40633</v>
@@ -11146,7 +11156,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>202</v>
@@ -11165,7 +11175,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>57</v>
@@ -11184,7 +11194,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>346</v>
@@ -11204,7 +11214,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <f>EOMONTH(A379,1)</f>
         <v>40663</v>
@@ -11229,7 +11239,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <f t="shared" ref="A384:A483" si="3">EOMONTH(A383,1)</f>
         <v>40694</v>
@@ -11254,7 +11264,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <f t="shared" si="3"/>
         <v>40724</v>
@@ -11279,7 +11289,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <f t="shared" si="3"/>
         <v>40755</v>
@@ -11306,7 +11316,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>356</v>
@@ -11326,7 +11336,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <f>EOMONTH(A386,1)</f>
         <v>40786</v>
@@ -11353,7 +11363,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>117</v>
@@ -11373,7 +11383,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>362</v>
@@ -11395,7 +11405,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>185</v>
@@ -11412,7 +11422,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23">
         <f>EOMONTH(A388,1)</f>
         <v>40816</v>
@@ -11439,7 +11449,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>359</v>
@@ -11459,7 +11469,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <f>EOMONTH(A392,1)</f>
         <v>40847</v>
@@ -11484,7 +11494,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>364</v>
@@ -11501,7 +11511,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23">
         <f>EOMONTH(A394,1)</f>
         <v>40877</v>
@@ -11526,7 +11536,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <f t="shared" si="3"/>
         <v>40908</v>
@@ -11553,7 +11563,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>366</v>
@@ -11573,7 +11583,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="48" t="s">
         <v>367</v>
       </c>
@@ -11591,7 +11601,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23">
         <f>EOMONTH(A397,1)</f>
         <v>40939</v>
@@ -11616,7 +11626,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23">
         <f t="shared" si="3"/>
         <v>40968</v>
@@ -11643,7 +11653,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>327</v>
@@ -11660,7 +11670,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
         <f>EOMONTH(A401,1)</f>
         <v>40999</v>
@@ -11687,7 +11697,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <f t="shared" si="3"/>
         <v>41029</v>
@@ -11714,7 +11724,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23"/>
       <c r="B405" s="20" t="s">
         <v>371</v>
@@ -11731,7 +11741,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <f>EOMONTH(A404,1)</f>
         <v>41060</v>
@@ -11756,7 +11766,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>375</v>
@@ -11776,7 +11786,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23">
         <f>EOMONTH(A406,1)</f>
         <v>41090</v>
@@ -11803,7 +11813,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>377</v>
@@ -11823,7 +11833,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23">
         <f>EOMONTH(A408,1)</f>
         <v>41121</v>
@@ -11848,7 +11858,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23">
         <f t="shared" si="3"/>
         <v>41152</v>
@@ -11875,7 +11885,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>380</v>
@@ -11892,7 +11902,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <f>EOMONTH(A411,1)</f>
         <v>41182</v>
@@ -11919,7 +11929,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>384</v>
@@ -11939,7 +11949,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23">
         <f>EOMONTH(A413,1)</f>
         <v>41213</v>
@@ -11966,7 +11976,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>382</v>
@@ -11983,7 +11993,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
         <f>EOMONTH(A415,1)</f>
         <v>41243</v>
@@ -12008,7 +12018,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <f t="shared" si="3"/>
         <v>41274</v>
@@ -12035,7 +12045,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>387</v>
@@ -12052,7 +12062,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="48" t="s">
         <v>388</v>
       </c>
@@ -12070,7 +12080,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23">
         <f>EOMONTH(A418,1)</f>
         <v>41305</v>
@@ -12095,7 +12105,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
         <f t="shared" si="3"/>
         <v>41333</v>
@@ -12120,7 +12130,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <f t="shared" si="3"/>
         <v>41364</v>
@@ -12145,7 +12155,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23">
         <f t="shared" si="3"/>
         <v>41394</v>
@@ -12172,7 +12182,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>142</v>
@@ -12192,7 +12202,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23">
         <f>EOMONTH(A424,1)</f>
         <v>41425</v>
@@ -12219,7 +12229,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>394</v>
@@ -12239,7 +12249,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f>EOMONTH(A426,1)</f>
         <v>41455</v>
@@ -12264,7 +12274,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>396</v>
@@ -12281,7 +12291,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
         <f>EOMONTH(A428,1)</f>
         <v>41486</v>
@@ -12306,7 +12316,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
         <f t="shared" si="3"/>
         <v>41517</v>
@@ -12331,7 +12341,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f t="shared" si="3"/>
         <v>41547</v>
@@ -12358,7 +12368,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>120</v>
@@ -12378,7 +12388,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23">
         <f>EOMONTH(A432,1)</f>
         <v>41578</v>
@@ -12403,7 +12413,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>400</v>
@@ -12423,7 +12433,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23">
         <f>EOMONTH(A434,1)</f>
         <v>41608</v>
@@ -12448,7 +12458,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>401</v>
@@ -12468,7 +12478,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23">
         <f>EOMONTH(A436,1)</f>
         <v>41639</v>
@@ -12495,7 +12505,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>403</v>
@@ -12515,7 +12525,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="48" t="s">
         <v>404</v>
       </c>
@@ -12533,7 +12543,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <f>EOMONTH(A438,1)</f>
         <v>41670</v>
@@ -12558,7 +12568,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23">
         <f t="shared" si="3"/>
         <v>41698</v>
@@ -12583,7 +12593,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23">
         <f t="shared" si="3"/>
         <v>41729</v>
@@ -12610,7 +12620,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
         <v>408</v>
@@ -12630,7 +12640,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23">
         <f>EOMONTH(A443,1)</f>
         <v>41759</v>
@@ -12655,7 +12665,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23">
         <f t="shared" si="3"/>
         <v>41790</v>
@@ -12682,7 +12692,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>116</v>
@@ -12699,7 +12709,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>412</v>
@@ -12716,7 +12726,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <f>EOMONTH(A446,1)</f>
         <v>41820</v>
@@ -12743,7 +12753,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23"/>
       <c r="B450" s="20" t="s">
         <v>414</v>
@@ -12763,7 +12773,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23">
         <f>EOMONTH(A449,1)</f>
         <v>41851</v>
@@ -12788,7 +12798,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="23">
         <f t="shared" si="3"/>
         <v>41882</v>
@@ -12815,7 +12825,7 @@
         <v>41767</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>416</v>
@@ -12835,7 +12845,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23">
         <f>EOMONTH(A452,1)</f>
         <v>41912</v>
@@ -12856,7 +12866,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23">
         <f t="shared" si="3"/>
         <v>41943</v>
@@ -12881,7 +12891,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>57</v>
@@ -12900,7 +12910,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>364</v>
@@ -12917,7 +12927,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="23">
         <f>EOMONTH(A455,1)</f>
         <v>41973</v>
@@ -12938,7 +12948,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23">
         <f t="shared" si="3"/>
         <v>42004</v>
@@ -12963,7 +12973,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="48" t="s">
         <v>419</v>
       </c>
@@ -12981,7 +12991,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23">
         <f>EOMONTH(A459,1)</f>
         <v>42035</v>
@@ -13006,7 +13016,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23">
         <f t="shared" si="3"/>
         <v>42063</v>
@@ -13027,7 +13037,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23">
         <f t="shared" si="3"/>
         <v>42094</v>
@@ -13052,7 +13062,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="23"/>
       <c r="B464" s="20" t="s">
         <v>422</v>
@@ -13072,7 +13082,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="23">
         <f>EOMONTH(A463,1)</f>
         <v>42124</v>
@@ -13099,7 +13109,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23"/>
       <c r="B466" s="20" t="s">
         <v>102</v>
@@ -13116,7 +13126,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23">
         <f>EOMONTH(A465,1)</f>
         <v>42155</v>
@@ -13143,7 +13153,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>425</v>
@@ -13163,7 +13173,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23">
         <f>EOMONTH(A467,1)</f>
         <v>42185</v>
@@ -13188,7 +13198,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="23">
         <f t="shared" si="3"/>
         <v>42216</v>
@@ -13215,7 +13225,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23"/>
       <c r="B471" s="20" t="s">
         <v>428</v>
@@ -13235,7 +13245,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23">
         <f>EOMONTH(A470,1)</f>
         <v>42247</v>
@@ -13260,7 +13270,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="23">
         <f t="shared" si="3"/>
         <v>42277</v>
@@ -13285,7 +13295,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23">
         <f t="shared" si="3"/>
         <v>42308</v>
@@ -13312,7 +13322,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="23"/>
       <c r="B475" s="20" t="s">
         <v>432</v>
@@ -13332,7 +13342,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="23">
         <f>EOMONTH(A474,1)</f>
         <v>42338</v>
@@ -13357,7 +13367,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="23">
         <f t="shared" si="3"/>
         <v>42369</v>
@@ -13384,7 +13394,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>117</v>
@@ -13404,7 +13414,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="23"/>
       <c r="B479" s="20" t="s">
         <v>100</v>
@@ -13424,7 +13434,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="48" t="s">
         <v>436</v>
       </c>
@@ -13442,7 +13452,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="23">
         <f>EOMONTH(A477,1)</f>
         <v>42400</v>
@@ -13463,7 +13473,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="23">
         <f t="shared" si="3"/>
         <v>42429</v>
@@ -13484,7 +13494,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="23">
         <f t="shared" si="3"/>
         <v>42460</v>
@@ -13509,7 +13519,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="23"/>
       <c r="B484" s="20" t="s">
         <v>117</v>
@@ -13529,7 +13539,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="23">
         <f>EOMONTH(A483,1)</f>
         <v>42490</v>
@@ -13556,7 +13566,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="23"/>
       <c r="B486" s="20" t="s">
         <v>56</v>
@@ -13575,7 +13585,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>57</v>
@@ -13594,7 +13604,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="23">
         <f>EOMONTH(A485,1)</f>
         <v>42521</v>
@@ -13615,7 +13625,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="23">
         <f t="shared" ref="A489:A513" si="4">EOMONTH(A488,1)</f>
         <v>42551</v>
@@ -13636,7 +13646,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="23">
         <f t="shared" si="4"/>
         <v>42582</v>
@@ -13657,7 +13667,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="23">
         <f t="shared" si="4"/>
         <v>42613</v>
@@ -13684,7 +13694,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="23"/>
       <c r="B492" s="20" t="s">
         <v>99</v>
@@ -13706,7 +13716,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="23">
         <f>EOMONTH(A491,1)</f>
         <v>42643</v>
@@ -13727,7 +13737,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="23">
         <f t="shared" si="4"/>
         <v>42674</v>
@@ -13748,7 +13758,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="23">
         <f t="shared" si="4"/>
         <v>42704</v>
@@ -13769,7 +13779,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="23">
         <f t="shared" si="4"/>
         <v>42735</v>
@@ -13796,7 +13806,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="48" t="s">
         <v>445</v>
       </c>
@@ -13814,7 +13824,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="23">
         <f>EOMONTH(A496,1)</f>
         <v>42766</v>
@@ -13835,7 +13845,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="23">
         <f t="shared" si="4"/>
         <v>42794</v>
@@ -13862,7 +13872,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="23">
         <f t="shared" si="4"/>
         <v>42825</v>
@@ -13883,7 +13893,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="23">
         <f t="shared" si="4"/>
         <v>42855</v>
@@ -13908,7 +13918,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>132</v>
@@ -13930,7 +13940,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="23"/>
       <c r="B503" s="20" t="s">
         <v>116</v>
@@ -13950,7 +13960,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="23">
         <f>EOMONTH(A501,1)</f>
         <v>42886</v>
@@ -13977,7 +13987,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>56</v>
@@ -13996,7 +14006,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="23"/>
       <c r="B506" s="20" t="s">
         <v>56</v>
@@ -14015,7 +14025,7 @@
         <v>42861</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="23">
         <f>EOMONTH(A504,1)</f>
         <v>42916</v>
@@ -14036,7 +14046,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="23">
         <f t="shared" si="4"/>
         <v>42947</v>
@@ -14063,7 +14073,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="23">
         <f t="shared" si="4"/>
         <v>42978</v>
@@ -14088,7 +14098,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="23">
         <f t="shared" si="4"/>
         <v>43008</v>
@@ -14115,7 +14125,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="23">
         <f t="shared" si="4"/>
         <v>43039</v>
@@ -14136,7 +14146,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="23">
         <f t="shared" si="4"/>
         <v>43069</v>
@@ -14163,7 +14173,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="23">
         <f t="shared" si="4"/>
         <v>43100</v>
@@ -14184,7 +14194,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="48" t="s">
         <v>45</v>
       </c>
@@ -14202,7 +14212,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>43101</v>
       </c>
@@ -14222,7 +14232,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>43132</v>
       </c>
@@ -14242,7 +14252,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>43160</v>
       </c>
@@ -14268,7 +14278,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>56</v>
@@ -14290,7 +14300,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>43191</v>
       </c>
@@ -14314,7 +14324,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="41"/>
       <c r="B520" s="15" t="s">
         <v>53</v>
@@ -14336,7 +14346,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>43221</v>
       </c>
@@ -14356,7 +14366,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>43252</v>
       </c>
@@ -14376,7 +14386,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>43282</v>
       </c>
@@ -14396,7 +14406,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>43313</v>
       </c>
@@ -14420,7 +14430,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>43344</v>
       </c>
@@ -14446,7 +14456,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>43374</v>
       </c>
@@ -14470,7 +14480,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>43405</v>
       </c>
@@ -14490,7 +14500,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>43435</v>
       </c>
@@ -14514,7 +14524,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="48" t="s">
         <v>46</v>
       </c>
@@ -14532,7 +14542,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>43466</v>
       </c>
@@ -14552,7 +14562,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>43497</v>
       </c>
@@ -14572,7 +14582,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>43525</v>
       </c>
@@ -14592,7 +14602,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>43556</v>
       </c>
@@ -14612,7 +14622,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>43586</v>
       </c>
@@ -14632,7 +14642,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>43617</v>
       </c>
@@ -14652,7 +14662,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>43647</v>
       </c>
@@ -14672,7 +14682,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>43678</v>
       </c>
@@ -14692,7 +14702,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>43709</v>
       </c>
@@ -14712,7 +14722,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>43739</v>
       </c>
@@ -14732,7 +14742,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>43770</v>
       </c>
@@ -14752,7 +14762,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>43800</v>
       </c>
@@ -14776,7 +14786,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="48" t="s">
         <v>47</v>
       </c>
@@ -14794,7 +14804,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>43831</v>
       </c>
@@ -14818,7 +14828,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>43862</v>
       </c>
@@ -14838,7 +14848,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>43891</v>
       </c>
@@ -14858,7 +14868,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>43922</v>
       </c>
@@ -14878,7 +14888,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>43952</v>
       </c>
@@ -14898,7 +14908,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>43983</v>
       </c>
@@ -14918,7 +14928,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>44013</v>
       </c>
@@ -14938,7 +14948,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>44044</v>
       </c>
@@ -14958,7 +14968,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>44075</v>
       </c>
@@ -14982,7 +14992,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>117</v>
@@ -15002,7 +15012,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>44105</v>
       </c>
@@ -15022,7 +15032,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>44136</v>
       </c>
@@ -15042,7 +15052,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>44166</v>
       </c>
@@ -15066,7 +15076,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="48" t="s">
         <v>48</v>
       </c>
@@ -15084,7 +15094,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>44197</v>
       </c>
@@ -15104,7 +15114,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>44228</v>
       </c>
@@ -15124,7 +15134,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>44256</v>
       </c>
@@ -15144,7 +15154,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>44287</v>
       </c>
@@ -15164,7 +15174,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>44317</v>
       </c>
@@ -15184,7 +15194,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>44348</v>
       </c>
@@ -15204,7 +15214,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>44378</v>
       </c>
@@ -15224,7 +15234,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>44409</v>
       </c>
@@ -15248,7 +15258,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>92</v>
@@ -15268,7 +15278,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>44440</v>
       </c>
@@ -15288,7 +15298,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>44470</v>
       </c>
@@ -15308,7 +15318,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>44501</v>
       </c>
@@ -15328,7 +15338,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>44531</v>
       </c>
@@ -15348,7 +15358,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="48" t="s">
         <v>49</v>
       </c>
@@ -15366,7 +15376,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>44562</v>
       </c>
@@ -15386,7 +15396,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>44593</v>
       </c>
@@ -15406,7 +15416,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>44621</v>
       </c>
@@ -15430,7 +15440,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>44652</v>
       </c>
@@ -15456,7 +15466,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>44682</v>
       </c>
@@ -15480,7 +15490,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>483</v>
@@ -15502,7 +15512,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>486</v>
@@ -15522,7 +15532,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>44713</v>
       </c>
@@ -15548,7 +15558,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>485</v>
@@ -15568,7 +15578,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="49"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>44743</v>
       </c>
@@ -15594,7 +15604,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>468</v>
@@ -15616,7 +15626,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>484</v>
@@ -15636,7 +15646,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>44774</v>
       </c>
@@ -15662,7 +15672,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>467</v>
@@ -15684,7 +15694,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>483</v>
@@ -15706,7 +15716,7 @@
         <v>44783</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>44805</v>
       </c>
@@ -15730,7 +15740,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>483</v>
@@ -15752,7 +15762,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>44835</v>
       </c>
@@ -15776,7 +15786,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>44866</v>
       </c>
@@ -15802,7 +15812,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>44896</v>
       </c>
@@ -15828,7 +15838,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="48" t="s">
         <v>51</v>
       </c>
@@ -15846,7 +15856,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>44927</v>
       </c>
@@ -15866,7 +15876,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>44958</v>
       </c>
@@ -15886,7 +15896,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>44986</v>
       </c>
@@ -15912,7 +15922,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>470</v>
@@ -15934,7 +15944,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>45017</v>
       </c>
@@ -15958,7 +15968,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>53</v>
@@ -15980,7 +15990,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>45047</v>
       </c>
@@ -16000,7 +16010,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>45078</v>
       </c>
@@ -16026,7 +16036,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>468</v>
@@ -16046,7 +16056,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>45108</v>
       </c>
@@ -16072,7 +16082,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
         <v>56</v>
@@ -16094,20 +16104,22 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>45139</v>
       </c>
       <c r="B603" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C603" s="13"/>
+      <c r="C603" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D603" s="39"/>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G603" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H603" s="39">
         <v>1</v>
@@ -16118,7 +16130,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>57</v>
@@ -16140,58 +16152,88 @@
         <v>487</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>45170</v>
       </c>
-      <c r="B605" s="20"/>
-      <c r="C605" s="13"/>
+      <c r="B605" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C605" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D605" s="39"/>
       <c r="E605" s="9"/>
       <c r="F605" s="20"/>
-      <c r="G605" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H605" s="39"/>
+      <c r="G605" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H605" s="39">
+        <v>1</v>
+      </c>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="20"/>
-    </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="40"/>
-      <c r="B606" s="20"/>
-      <c r="C606" s="13"/>
+      <c r="K605" s="49">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A606" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B606" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C606" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D606" s="39"/>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H606" s="39"/>
+      <c r="G606" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H606" s="39">
+        <v>2</v>
+      </c>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="20"/>
-    </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A607" s="40"/>
-      <c r="B607" s="20"/>
-      <c r="C607" s="13"/>
-      <c r="D607" s="39"/>
+      <c r="K606" s="20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A607" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B607" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C607" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D607" s="39">
+        <v>5</v>
+      </c>
       <c r="E607" s="9"/>
       <c r="F607" s="20"/>
-      <c r="G607" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G607" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H607" s="39"/>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
-      <c r="K607" s="20"/>
-    </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A608" s="40"/>
+      <c r="K607" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A608" s="40">
+        <v>45261</v>
+      </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
       <c r="D608" s="39"/>
@@ -16206,8 +16248,10 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A609" s="40"/>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A609" s="48" t="s">
+        <v>488</v>
+      </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
       <c r="D609" s="39"/>
@@ -16222,8 +16266,10 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A610" s="40"/>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A610" s="40">
+        <v>45292</v>
+      </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
       <c r="D610" s="39"/>
@@ -16238,8 +16284,10 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A611" s="40"/>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A611" s="40">
+        <v>45323</v>
+      </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
       <c r="D611" s="39"/>
@@ -16254,8 +16302,10 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A612" s="40"/>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A612" s="40">
+        <v>45352</v>
+      </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
       <c r="D612" s="39"/>
@@ -16270,8 +16320,10 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A613" s="40"/>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A613" s="40">
+        <v>45383</v>
+      </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
       <c r="D613" s="39"/>
@@ -16286,8 +16338,10 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" s="40"/>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A614" s="40">
+        <v>45413</v>
+      </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
       <c r="D614" s="39"/>
@@ -16302,8 +16356,10 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" s="40"/>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A615" s="40">
+        <v>45444</v>
+      </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
       <c r="D615" s="39"/>
@@ -16318,8 +16374,10 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" s="40"/>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A616" s="40">
+        <v>45474</v>
+      </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
       <c r="D616" s="39"/>
@@ -16334,8 +16392,10 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A617" s="40"/>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A617" s="40">
+        <v>45505</v>
+      </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
       <c r="D617" s="39"/>
@@ -16350,8 +16410,10 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A618" s="40"/>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A618" s="40">
+        <v>45536</v>
+      </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
       <c r="D618" s="39"/>
@@ -16366,8 +16428,10 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A619" s="40"/>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A619" s="40">
+        <v>45566</v>
+      </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
       <c r="D619" s="39"/>
@@ -16382,7 +16446,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16398,7 +16462,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16414,7 +16478,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -16430,7 +16494,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -16446,7 +16510,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -16462,7 +16526,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -16478,7 +16542,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -16494,7 +16558,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -16510,7 +16574,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -16526,7 +16590,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -16542,7 +16606,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -16558,7 +16622,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -16574,7 +16638,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -16590,7 +16654,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -16606,7 +16670,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -16622,7 +16686,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -16638,7 +16702,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -16654,7 +16718,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -16670,7 +16734,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16686,7 +16750,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16702,7 +16766,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16718,7 +16782,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16734,7 +16798,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16750,7 +16814,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16766,7 +16830,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16782,7 +16846,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16798,21 +16862,37 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A646" s="41"/>
-      <c r="B646" s="15"/>
-      <c r="C646" s="42"/>
-      <c r="D646" s="43"/>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A646" s="40"/>
+      <c r="B646" s="20"/>
+      <c r="C646" s="13"/>
+      <c r="D646" s="39"/>
       <c r="E646" s="9"/>
-      <c r="F646" s="15"/>
-      <c r="G646" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H646" s="43"/>
+      <c r="F646" s="20"/>
+      <c r="G646" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H646" s="39"/>
       <c r="I646" s="9"/>
-      <c r="J646" s="12"/>
-      <c r="K646" s="15"/>
+      <c r="J646" s="11"/>
+      <c r="K646" s="20"/>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A647" s="41"/>
+      <c r="B647" s="15"/>
+      <c r="C647" s="42"/>
+      <c r="D647" s="43"/>
+      <c r="E647" s="9"/>
+      <c r="F647" s="15"/>
+      <c r="G647" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H647" s="43"/>
+      <c r="I647" s="9"/>
+      <c r="J647" s="12"/>
+      <c r="K647" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16830,10 +16910,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16856,28 +16936,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -16890,7 +16970,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16919,7 +16999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -16947,17 +17027,17 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16978,7 +17058,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17005,7 +17085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17031,7 +17111,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17057,7 +17137,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17083,7 +17163,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17109,7 +17189,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17135,7 +17215,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17161,7 +17241,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17187,7 +17267,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17207,7 +17287,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17227,7 +17307,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17247,7 +17327,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17268,7 +17348,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17289,7 +17369,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17310,7 +17390,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17331,7 +17411,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17352,7 +17432,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17373,7 +17453,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17394,7 +17474,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17415,7 +17495,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17436,7 +17516,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17457,7 +17537,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17478,7 +17558,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17499,7 +17579,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17520,7 +17600,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17541,7 +17621,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17562,7 +17642,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17583,7 +17663,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17604,7 +17684,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17625,7 +17705,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17646,7 +17726,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17667,7 +17747,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17676,7 +17756,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17685,7 +17765,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17694,7 +17774,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17703,7 +17783,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17712,7 +17792,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17721,7 +17801,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17730,7 +17810,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17739,7 +17819,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17748,7 +17828,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17757,7 +17837,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17766,7 +17846,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17775,7 +17855,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17784,7 +17864,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17793,7 +17873,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17802,7 +17882,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17811,7 +17891,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17820,7 +17900,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17829,7 +17909,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17838,7 +17918,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17847,7 +17927,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17856,7 +17936,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17865,7 +17945,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17874,7 +17954,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17883,7 +17963,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17892,7 +17972,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17901,7 +17981,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17910,7 +17990,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17919,7 +17999,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17928,7 +18008,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
